--- a/LoginDetail.xlsx
+++ b/LoginDetail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,30 @@
       <sz val="15.0"/>
       <b val="true"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -201,6 +225,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +555,8 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" t="s" s="16">
-        <v>9</v>
+      <c r="D2" t="s" s="20">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -537,7 +565,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" t="s" s="13">
+      <c r="D3" t="s" s="17">
         <v>8</v>
       </c>
     </row>
